--- a/Jmeter-Report.xlsx
+++ b/Jmeter-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5A6A7BD958BC93E0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jmeter-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D017D0B-C7DB-46BA-A2DE-A13A885BD03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0121371-9845-40F2-8703-30C9D77DC93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{F2B3ABAE-6395-4FE2-A280-5C052ABDD827}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F2B3ABAE-6395-4FE2-A280-5C052ABDD827}"/>
   </bookViews>
   <sheets>
     <sheet name="PIM" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,7 +848,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000000-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -967,7 +967,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000001-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1086,7 +1086,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000002-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1205,7 +1205,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000003-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,7 +1324,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000004-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1443,7 +1443,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000005-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,7 +1564,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000006-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1685,7 +1685,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000007-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1806,7 +1806,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000008-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1927,7 +1927,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9957-48D0-AB76-62E420FBFE31}"/>
+              <c16:uniqueId val="{00000009-8640-4E1E-AED0-6F9F77711D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1941,11 +1941,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2028022048"/>
-        <c:axId val="2028010048"/>
+        <c:axId val="217155759"/>
+        <c:axId val="217154799"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028022048"/>
+        <c:axId val="217155759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028010048"/>
+        <c:crossAx val="217154799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +1996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028010048"/>
+        <c:axId val="217154799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028022048"/>
+        <c:crossAx val="217155759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3752,7 +3752,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000000-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3871,7 +3871,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000001-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3990,7 +3990,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000002-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4109,7 +4109,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000003-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4228,7 +4228,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000004-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4347,7 +4347,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000005-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4468,7 +4468,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000006-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4589,7 +4589,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000007-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4710,7 +4710,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000008-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4831,7 +4831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-916D-4DD7-B6AA-2D171C9E690A}"/>
+              <c16:uniqueId val="{00000009-007F-480D-B2E1-10E921DF3FE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4845,11 +4845,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="834435568"/>
-        <c:axId val="834436048"/>
+        <c:axId val="217108719"/>
+        <c:axId val="217109199"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="834435568"/>
+        <c:axId val="217108719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4892,7 +4892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834436048"/>
+        <c:crossAx val="217109199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4900,7 +4900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834436048"/>
+        <c:axId val="217109199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +4951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834435568"/>
+        <c:crossAx val="217108719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6771,23 +6771,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE97104-8B6A-4B31-BE9B-858BAB944C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F60A12-0C8B-7A9A-EC72-3508B9263288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7054,22 +7054,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
+      <xdr:colOff>4482</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>318247</xdr:colOff>
+      <xdr:colOff>309282</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02620A41-DC97-8BD7-A4CE-97326D865455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A00DC7-2A02-7C92-449A-3649038AD1AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7390,12 +7390,12 @@
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I2"/>
+      <selection activeCell="N14" sqref="B4:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>105414.8</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>126662.6</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>603980.6</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>409823.1</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>640494.4</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>1333243</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>108542.6</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -8269,14 +8269,14 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>105405.4</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>126661</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>601453.5</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>404469.9</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>934.1</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>108342</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -9146,13 +9146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4729E-9511-460E-A997-12A0B4929A51}">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>105414.8</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>126662.6</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>603980.6</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>409823.1</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>640494.4</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1333243</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>108542.6</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
